--- a/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
+++ b/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\EoCtUH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\dist-heat\EoCtUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E5DCE-5BE1-48F8-B588-2575D3565297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A213CE0-B304-426A-B2B8-495056E14A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1470" windowWidth="14595" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60840" yWindow="2385" windowWidth="24900" windowHeight="14490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Source:</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Heat pumps are represented by using an efficiency greater than 1</t>
+  </si>
+  <si>
+    <t>green hydrogen</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen</t>
   </si>
 </sst>
 </file>
@@ -205,7 +211,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -284,28 +290,21 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -328,9 +327,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,9 +367,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,26 +402,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,26 +437,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -650,146 +615,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -809,17 +770,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -842,7 +803,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.65</v>
       </c>
@@ -865,25 +826,25 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <f>AVERAGE(A3:G3)</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -894,7 +855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -905,7 +866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -916,7 +877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -927,7 +888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -938,7 +899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5</v>
       </c>
@@ -949,7 +910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>6</v>
       </c>
@@ -960,7 +921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7</v>
       </c>
@@ -971,7 +932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -982,7 +943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9</v>
       </c>
@@ -993,7 +954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1004,18 +965,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="9">
         <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1026,7 +987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1037,18 +998,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>14</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1059,7 +1020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1070,30 +1031,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="10">
         <f>AVERAGEIFS(B11:B26,C11:C26,"district heating system")</f>
         <v>3.6642857142857141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="11">
         <f>A6*B28</f>
         <v>2.5702346938775507</v>
       </c>
@@ -1108,107 +1069,127 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>Data!B32</f>
         <v>2.5702346938775507</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4">
+        <f>Data!A$6</f>
+        <v>0.7014285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4">
         <f>Data!A$6</f>
         <v>0.7014285714285714</v>
       </c>
